--- a/Set2.xlsx
+++ b/Set2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="831" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="831" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Create Implementation Project" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Establish Enterprise Structure" sheetId="7" r:id="rId7"/>
     <sheet name="Manage Reference Data Sets" sheetId="8" r:id="rId8"/>
     <sheet name="Legislative Data Groups" sheetId="9" r:id="rId9"/>
+    <sheet name="Manage Legal Addresses" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="310">
   <si>
     <t>Task Name :</t>
   </si>
@@ -902,6 +903,66 @@
   </si>
   <si>
     <t>devops ACN US LDG3</t>
+  </si>
+  <si>
+    <t>US Central Time</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Suite 200</t>
+  </si>
+  <si>
+    <t>155 N. State St.</t>
+  </si>
+  <si>
+    <t>Suite 500</t>
+  </si>
+  <si>
+    <t>177 N. State St.</t>
+  </si>
+  <si>
+    <t>Suite Test</t>
+  </si>
+  <si>
+    <t>155 N. Test St.</t>
+  </si>
+  <si>
+    <t>177 N. Test St.</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>*Zip/Postal Code</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Address Line 3</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>*Address Line 1</t>
+  </si>
+  <si>
+    <t>Legal Addresses</t>
+  </si>
+  <si>
+    <t>Comments zone</t>
+  </si>
+  <si>
+    <t>Setup and Maintenance-&gt;Workforce Deployment-&gt;Define Common Applications Configuration for HCM-&gt; Define Enterprise Structures for Human Capital Management-&gt; Define Legal Jurisdictions and Authorities for HCM-&gt; Manage Legal Addresses</t>
+  </si>
+  <si>
+    <t>Manage Legal Addresses</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1568,6 +1629,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1580,7 +1667,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2205,6 +2292,22 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3477,6 +3580,457 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T21"/>
+  <sheetViews>
+    <sheetView topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.5703125" style="35" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="35" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="35" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="17" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="35" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="35" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="35"/>
+    <col min="14" max="14" width="15.7109375" style="35" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="35" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="237" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="237" t="s">
+        <v>308</v>
+      </c>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="175" t="s">
+        <v>307</v>
+      </c>
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="176"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="177"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G5" s="42"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="116">
+        <v>0</v>
+      </c>
+      <c r="B9" s="116">
+        <v>1</v>
+      </c>
+      <c r="C9" s="116">
+        <v>2</v>
+      </c>
+      <c r="D9" s="116">
+        <v>3</v>
+      </c>
+      <c r="E9" s="116">
+        <v>4</v>
+      </c>
+      <c r="F9" s="116">
+        <v>5</v>
+      </c>
+      <c r="G9" s="116">
+        <v>6</v>
+      </c>
+      <c r="H9" s="236" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="235"/>
+      <c r="M9" s="235"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="234"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>169</v>
+      </c>
+      <c r="E10" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="117" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="N10" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="O10" s="55" t="s">
+        <v>300</v>
+      </c>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="118" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="147" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" s="147" t="s">
+        <v>297</v>
+      </c>
+      <c r="K11" s="147"/>
+      <c r="L11" s="232" t="s">
+        <v>292</v>
+      </c>
+      <c r="M11" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="N11" s="232">
+        <v>60601</v>
+      </c>
+      <c r="O11" s="232" t="s">
+        <v>290</v>
+      </c>
+      <c r="P11" s="233"/>
+      <c r="Q11" s="233"/>
+      <c r="R11" s="233"/>
+      <c r="S11" s="233"/>
+      <c r="T11" s="233"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G12" s="71"/>
+      <c r="H12" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="147" t="s">
+        <v>298</v>
+      </c>
+      <c r="J12" s="147" t="s">
+        <v>297</v>
+      </c>
+      <c r="K12" s="147"/>
+      <c r="L12" s="232" t="s">
+        <v>292</v>
+      </c>
+      <c r="M12" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="N12" s="232">
+        <v>60601</v>
+      </c>
+      <c r="O12" s="232" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G13" s="71"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="71"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G15" s="71"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="232"/>
+      <c r="M15" s="232"/>
+      <c r="N15" s="232"/>
+      <c r="O15" s="232"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="71"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+    </row>
+    <row r="17" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="71"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+    </row>
+    <row r="18" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="71"/>
+      <c r="H18" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="147" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" s="147" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="147"/>
+      <c r="L18" s="232" t="s">
+        <v>292</v>
+      </c>
+      <c r="M18" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="N18" s="232">
+        <v>60601</v>
+      </c>
+      <c r="O18" s="232" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="71"/>
+      <c r="H19" s="147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="174" t="s">
+        <v>294</v>
+      </c>
+      <c r="J19" s="147" t="s">
+        <v>293</v>
+      </c>
+      <c r="K19" s="174"/>
+      <c r="L19" s="232" t="s">
+        <v>292</v>
+      </c>
+      <c r="M19" s="232" t="s">
+        <v>291</v>
+      </c>
+      <c r="N19" s="232">
+        <v>60601</v>
+      </c>
+      <c r="O19" s="232" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="71"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+    </row>
+    <row r="21" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="71"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K4:R6"/>
+    <mergeCell ref="H9:O9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G7" location="Contents!A1" display="Contents"/>
+    <hyperlink ref="E11" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU33"/>
@@ -8721,7 +9275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -10333,7 +10887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>

--- a/Set2.xlsx
+++ b/Set2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\Desktop\suvra-usecase\set2\repo\HCM_Set2_Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john.lester.f.lucena\Desktop\suvra-usecase\Environment\DEV\HCM_Set2_Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -881,9 +881,6 @@
     <t>Manage Legislative Data Groups</t>
   </si>
   <si>
-    <t>Setup and Maintenance-&gt;Workforce Deployment-&gt;Define Common Applications Configurations for HCM-&gt; Define Enterprise Structures for Human Capital Management-&gt; Define Reference Data Sharing for HCM -&gt; Manage Legislative Data Groups</t>
-  </si>
-  <si>
     <t>*Country</t>
   </si>
   <si>
@@ -963,6 +960,9 @@
   </si>
   <si>
     <t>Manage Legal Addresses</t>
+  </si>
+  <si>
+    <t>Setup and Maintenance-&gt; Workforce Deployment-&gt; Define Common Applications Configuration for HCM-&gt; Define Enterprise Structures for Human Capital Management-&gt; Manage Legislative Data Groups</t>
   </si>
 </sst>
 </file>
@@ -2121,6 +2121,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
@@ -2292,22 +2299,15 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3095,13 +3095,13 @@
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="177"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -3109,13 +3109,13 @@
       <c r="I5" s="24"/>
       <c r="J5" s="24"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3123,13 +3123,13 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="183"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="186"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -3196,20 +3196,20 @@
       <c r="G10" s="116">
         <v>6</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="184" t="s">
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="186"/>
+      <c r="P10" s="188"/>
+      <c r="Q10" s="189"/>
     </row>
     <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
@@ -3625,8 +3625,8 @@
       <c r="G2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="237" t="s">
-        <v>309</v>
+      <c r="H2" s="177" t="s">
+        <v>308</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
@@ -3645,8 +3645,8 @@
       <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="237" t="s">
-        <v>308</v>
+      <c r="H3" s="177" t="s">
+        <v>307</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -3666,16 +3666,16 @@
       <c r="H4" s="40"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="175" t="s">
-        <v>307</v>
-      </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="177"/>
+      <c r="K4" s="178" t="s">
+        <v>306</v>
+      </c>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
       <c r="S4" s="43"/>
       <c r="T4" s="43"/>
     </row>
@@ -3684,14 +3684,14 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="41"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="43"/>
       <c r="T5" s="43"/>
     </row>
@@ -3700,14 +3700,14 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="183"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="186"/>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
     </row>
@@ -3752,16 +3752,16 @@
       <c r="G9" s="116">
         <v>6</v>
       </c>
-      <c r="H9" s="236" t="s">
-        <v>306</v>
-      </c>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="235"/>
-      <c r="M9" s="235"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="234"/>
+      <c r="H9" s="235" t="s">
+        <v>305</v>
+      </c>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="236"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="236"/>
+      <c r="O9" s="237"/>
       <c r="P9" s="73"/>
       <c r="Q9" s="73"/>
       <c r="R9" s="73"/>
@@ -3791,28 +3791,28 @@
         <v>172</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>183</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
@@ -3842,29 +3842,29 @@
         <v>80</v>
       </c>
       <c r="I11" s="147" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J11" s="147" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K11" s="147"/>
-      <c r="L11" s="232" t="s">
-        <v>292</v>
-      </c>
-      <c r="M11" s="232" t="s">
+      <c r="L11" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="N11" s="232">
+      <c r="M11" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="N11" s="175">
         <v>60601</v>
       </c>
-      <c r="O11" s="232" t="s">
-        <v>290</v>
-      </c>
-      <c r="P11" s="233"/>
-      <c r="Q11" s="233"/>
-      <c r="R11" s="233"/>
-      <c r="S11" s="233"/>
-      <c r="T11" s="233"/>
+      <c r="O11" s="175" t="s">
+        <v>289</v>
+      </c>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G12" s="71"/>
@@ -3872,23 +3872,23 @@
         <v>80</v>
       </c>
       <c r="I12" s="147" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J12" s="147" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K12" s="147"/>
-      <c r="L12" s="232" t="s">
-        <v>292</v>
-      </c>
-      <c r="M12" s="232" t="s">
+      <c r="L12" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="N12" s="232">
+      <c r="M12" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" s="175">
         <v>60601</v>
       </c>
-      <c r="O12" s="232" t="s">
-        <v>290</v>
+      <c r="O12" s="175" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3919,10 +3919,10 @@
       <c r="I15" s="147"/>
       <c r="J15" s="147"/>
       <c r="K15" s="147"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="232"/>
-      <c r="N15" s="232"/>
-      <c r="O15" s="232"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G16" s="71"/>
@@ -3952,23 +3952,23 @@
         <v>80</v>
       </c>
       <c r="I18" s="147" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J18" s="147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K18" s="147"/>
-      <c r="L18" s="232" t="s">
-        <v>292</v>
-      </c>
-      <c r="M18" s="232" t="s">
+      <c r="L18" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="N18" s="232">
+      <c r="M18" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="N18" s="175">
         <v>60601</v>
       </c>
-      <c r="O18" s="232" t="s">
-        <v>290</v>
+      <c r="O18" s="175" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.25">
@@ -3977,23 +3977,23 @@
         <v>80</v>
       </c>
       <c r="I19" s="174" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J19" s="147" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K19" s="174"/>
-      <c r="L19" s="232" t="s">
-        <v>292</v>
-      </c>
-      <c r="M19" s="232" t="s">
+      <c r="L19" s="175" t="s">
         <v>291</v>
       </c>
-      <c r="N19" s="232">
+      <c r="M19" s="175" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" s="175">
         <v>60601</v>
       </c>
-      <c r="O19" s="232" t="s">
-        <v>290</v>
+      <c r="O19" s="175" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.25">
@@ -4198,14 +4198,14 @@
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="189"/>
-      <c r="R4" s="189"/>
-      <c r="S4" s="190"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="192"/>
+      <c r="R4" s="192"/>
+      <c r="S4" s="193"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -4239,14 +4239,14 @@
       <c r="I5" s="30"/>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
-      <c r="L5" s="191"/>
-      <c r="M5" s="192"/>
-      <c r="N5" s="192"/>
-      <c r="O5" s="192"/>
-      <c r="P5" s="192"/>
-      <c r="Q5" s="192"/>
-      <c r="R5" s="192"/>
-      <c r="S5" s="193"/>
+      <c r="L5" s="194"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="195"/>
+      <c r="O5" s="195"/>
+      <c r="P5" s="195"/>
+      <c r="Q5" s="195"/>
+      <c r="R5" s="195"/>
+      <c r="S5" s="196"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -4280,14 +4280,14 @@
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="195"/>
-      <c r="Q6" s="195"/>
-      <c r="R6" s="195"/>
-      <c r="S6" s="196"/>
+      <c r="L6" s="197"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="199"/>
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -4466,57 +4466,57 @@
       <c r="G10" s="116">
         <v>6</v>
       </c>
-      <c r="H10" s="184" t="s">
+      <c r="H10" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="184" t="s">
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="188"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="186"/>
-      <c r="S10" s="184" t="s">
+      <c r="Q10" s="188"/>
+      <c r="R10" s="189"/>
+      <c r="S10" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="186"/>
-      <c r="U10" s="184" t="s">
+      <c r="T10" s="189"/>
+      <c r="U10" s="187" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="186"/>
+      <c r="V10" s="189"/>
       <c r="W10" s="32"/>
       <c r="X10" s="32"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="32"/>
-      <c r="AA10" s="185" t="s">
+      <c r="AA10" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="AB10" s="185"/>
+      <c r="AB10" s="188"/>
       <c r="AC10" s="32"/>
-      <c r="AD10" s="187"/>
-      <c r="AE10" s="187"/>
-      <c r="AF10" s="187"/>
-      <c r="AG10" s="187"/>
-      <c r="AH10" s="187"/>
-      <c r="AI10" s="187"/>
-      <c r="AJ10" s="187"/>
-      <c r="AK10" s="187"/>
-      <c r="AL10" s="187"/>
-      <c r="AM10" s="187"/>
-      <c r="AN10" s="187"/>
-      <c r="AO10" s="187"/>
-      <c r="AP10" s="187"/>
-      <c r="AQ10" s="187"/>
-      <c r="AR10" s="184" t="s">
+      <c r="AD10" s="190"/>
+      <c r="AE10" s="190"/>
+      <c r="AF10" s="190"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="190"/>
+      <c r="AI10" s="190"/>
+      <c r="AJ10" s="190"/>
+      <c r="AK10" s="190"/>
+      <c r="AL10" s="190"/>
+      <c r="AM10" s="190"/>
+      <c r="AN10" s="190"/>
+      <c r="AO10" s="190"/>
+      <c r="AP10" s="190"/>
+      <c r="AQ10" s="190"/>
+      <c r="AR10" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="AS10" s="185"/>
-      <c r="AT10" s="186"/>
+      <c r="AS10" s="188"/>
+      <c r="AT10" s="189"/>
     </row>
     <row r="11" spans="1:47" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
@@ -6019,16 +6019,16 @@
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
-      <c r="M4" s="175" t="s">
+      <c r="M4" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="177"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="180"/>
       <c r="U4" s="43"/>
       <c r="V4" s="43"/>
       <c r="W4" s="70"/>
@@ -6065,14 +6065,14 @@
       <c r="J5" s="24"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="178"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="180"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="183"/>
       <c r="U5" s="43"/>
       <c r="V5" s="43"/>
       <c r="W5" s="70"/>
@@ -6109,14 +6109,14 @@
       <c r="J6" s="40"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="183"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="186"/>
       <c r="U6" s="43"/>
       <c r="V6" s="43"/>
       <c r="W6" s="70"/>
@@ -6194,104 +6194,104 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="G8" s="73"/>
-      <c r="H8" s="208" t="s">
+      <c r="H8" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="208"/>
-      <c r="P8" s="208"/>
-      <c r="Q8" s="208"/>
-      <c r="R8" s="208"/>
-      <c r="S8" s="208"/>
-      <c r="T8" s="208"/>
-      <c r="U8" s="208"/>
-      <c r="V8" s="208"/>
-      <c r="W8" s="208"/>
-      <c r="X8" s="208"/>
-      <c r="Y8" s="208"/>
-      <c r="Z8" s="208"/>
-      <c r="AA8" s="208"/>
-      <c r="AB8" s="208"/>
-      <c r="AC8" s="208"/>
-      <c r="AD8" s="208"/>
-      <c r="AE8" s="208"/>
-      <c r="AF8" s="208"/>
-      <c r="AG8" s="208"/>
-      <c r="AH8" s="208"/>
-      <c r="AI8" s="208"/>
-      <c r="AJ8" s="208"/>
-      <c r="AK8" s="208"/>
-      <c r="AL8" s="208"/>
-      <c r="AM8" s="208"/>
-      <c r="AN8" s="208"/>
-      <c r="AO8" s="208"/>
-      <c r="AP8" s="208"/>
-      <c r="AQ8" s="208"/>
-      <c r="AR8" s="208"/>
-      <c r="AS8" s="208"/>
-      <c r="AT8" s="208"/>
-      <c r="AU8" s="208"/>
-      <c r="AV8" s="208"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="211"/>
+      <c r="AH8" s="211"/>
+      <c r="AI8" s="211"/>
+      <c r="AJ8" s="211"/>
+      <c r="AK8" s="211"/>
+      <c r="AL8" s="211"/>
+      <c r="AM8" s="211"/>
+      <c r="AN8" s="211"/>
+      <c r="AO8" s="211"/>
+      <c r="AP8" s="211"/>
+      <c r="AQ8" s="211"/>
+      <c r="AR8" s="211"/>
+      <c r="AS8" s="211"/>
+      <c r="AT8" s="211"/>
+      <c r="AU8" s="211"/>
+      <c r="AV8" s="211"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="G9" s="78"/>
-      <c r="H9" s="209" t="s">
+      <c r="H9" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="211" t="s">
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="214" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="212"/>
-      <c r="O9" s="201" t="s">
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="204" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="203"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="206"/>
       <c r="T9" s="95" t="s">
         <v>95</v>
       </c>
       <c r="U9" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="204" t="s">
+      <c r="V9" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="205"/>
-      <c r="X9" s="205"/>
-      <c r="Y9" s="205"/>
-      <c r="Z9" s="205"/>
-      <c r="AA9" s="205"/>
-      <c r="AB9" s="205"/>
-      <c r="AC9" s="205"/>
-      <c r="AD9" s="205"/>
-      <c r="AE9" s="205"/>
-      <c r="AF9" s="205"/>
-      <c r="AG9" s="206"/>
-      <c r="AH9" s="201" t="s">
+      <c r="W9" s="208"/>
+      <c r="X9" s="208"/>
+      <c r="Y9" s="208"/>
+      <c r="Z9" s="208"/>
+      <c r="AA9" s="208"/>
+      <c r="AB9" s="208"/>
+      <c r="AC9" s="208"/>
+      <c r="AD9" s="208"/>
+      <c r="AE9" s="208"/>
+      <c r="AF9" s="208"/>
+      <c r="AG9" s="209"/>
+      <c r="AH9" s="204" t="s">
         <v>98</v>
       </c>
-      <c r="AI9" s="202"/>
-      <c r="AJ9" s="202"/>
-      <c r="AK9" s="202"/>
-      <c r="AL9" s="202"/>
-      <c r="AM9" s="202"/>
-      <c r="AN9" s="202"/>
-      <c r="AO9" s="202"/>
-      <c r="AP9" s="202"/>
-      <c r="AQ9" s="202"/>
-      <c r="AR9" s="202"/>
-      <c r="AS9" s="203"/>
+      <c r="AI9" s="205"/>
+      <c r="AJ9" s="205"/>
+      <c r="AK9" s="205"/>
+      <c r="AL9" s="205"/>
+      <c r="AM9" s="205"/>
+      <c r="AN9" s="205"/>
+      <c r="AO9" s="205"/>
+      <c r="AP9" s="205"/>
+      <c r="AQ9" s="205"/>
+      <c r="AR9" s="205"/>
+      <c r="AS9" s="206"/>
       <c r="AT9" s="92" t="s">
         <v>99</v>
       </c>
@@ -7044,36 +7044,36 @@
     </row>
     <row r="18" spans="7:48" x14ac:dyDescent="0.25">
       <c r="G18" s="73"/>
-      <c r="H18" s="207" t="s">
+      <c r="H18" s="210" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="207"/>
-      <c r="J18" s="207"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="208"/>
-      <c r="Q18" s="208"/>
-      <c r="R18" s="208"/>
-      <c r="S18" s="208"/>
-      <c r="T18" s="208"/>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
-      <c r="W18" s="208"/>
-      <c r="X18" s="208"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="208"/>
-      <c r="AA18" s="208"/>
-      <c r="AB18" s="208"/>
-      <c r="AC18" s="208"/>
-      <c r="AD18" s="208"/>
-      <c r="AE18" s="208"/>
-      <c r="AF18" s="208"/>
-      <c r="AG18" s="208"/>
-      <c r="AH18" s="208"/>
-      <c r="AI18" s="208"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="211"/>
+      <c r="O18" s="211"/>
+      <c r="P18" s="211"/>
+      <c r="Q18" s="211"/>
+      <c r="R18" s="211"/>
+      <c r="S18" s="211"/>
+      <c r="T18" s="211"/>
+      <c r="U18" s="211"/>
+      <c r="V18" s="211"/>
+      <c r="W18" s="211"/>
+      <c r="X18" s="211"/>
+      <c r="Y18" s="211"/>
+      <c r="Z18" s="211"/>
+      <c r="AA18" s="211"/>
+      <c r="AB18" s="211"/>
+      <c r="AC18" s="211"/>
+      <c r="AD18" s="211"/>
+      <c r="AE18" s="211"/>
+      <c r="AF18" s="211"/>
+      <c r="AG18" s="211"/>
+      <c r="AH18" s="211"/>
+      <c r="AI18" s="211"/>
       <c r="AJ18" s="73"/>
       <c r="AK18" s="73"/>
       <c r="AL18" s="73"/>
@@ -7090,43 +7090,43 @@
     </row>
     <row r="19" spans="7:48" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="78"/>
-      <c r="H19" s="197" t="s">
+      <c r="H19" s="200" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="197"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="197"/>
-      <c r="L19" s="198"/>
-      <c r="M19" s="204" t="s">
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="207" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="205"/>
-      <c r="O19" s="205"/>
-      <c r="P19" s="205"/>
-      <c r="Q19" s="206"/>
-      <c r="R19" s="201" t="s">
+      <c r="N19" s="208"/>
+      <c r="O19" s="208"/>
+      <c r="P19" s="208"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="204" t="s">
         <v>137</v>
       </c>
-      <c r="S19" s="202"/>
-      <c r="T19" s="202"/>
-      <c r="U19" s="203"/>
-      <c r="V19" s="201" t="s">
+      <c r="S19" s="205"/>
+      <c r="T19" s="205"/>
+      <c r="U19" s="206"/>
+      <c r="V19" s="204" t="s">
         <v>138</v>
       </c>
-      <c r="W19" s="202"/>
-      <c r="X19" s="202"/>
-      <c r="Y19" s="202"/>
-      <c r="Z19" s="202"/>
-      <c r="AA19" s="203"/>
-      <c r="AB19" s="201" t="s">
+      <c r="W19" s="205"/>
+      <c r="X19" s="205"/>
+      <c r="Y19" s="205"/>
+      <c r="Z19" s="205"/>
+      <c r="AA19" s="206"/>
+      <c r="AB19" s="204" t="s">
         <v>139</v>
       </c>
-      <c r="AC19" s="202"/>
-      <c r="AD19" s="203"/>
-      <c r="AE19" s="199" t="s">
+      <c r="AC19" s="205"/>
+      <c r="AD19" s="206"/>
+      <c r="AE19" s="202" t="s">
         <v>140</v>
       </c>
-      <c r="AF19" s="200"/>
+      <c r="AF19" s="203"/>
       <c r="AG19" s="78"/>
       <c r="AH19" s="78"/>
       <c r="AI19" s="78"/>
@@ -7701,14 +7701,14 @@
       <c r="H4" s="40"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="177"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
       <c r="S4" s="43"/>
       <c r="T4" s="43"/>
       <c r="U4" s="70"/>
@@ -7722,14 +7722,14 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="41"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="43"/>
       <c r="T5" s="43"/>
       <c r="U5" s="70"/>
@@ -7743,14 +7743,14 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="183"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="186"/>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
       <c r="U6" s="70"/>
@@ -8185,14 +8185,14 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
-      <c r="O4" s="214"/>
-      <c r="P4" s="214"/>
-      <c r="Q4" s="214"/>
-      <c r="R4" s="215"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="218"/>
       <c r="S4" s="46"/>
       <c r="T4" s="46"/>
     </row>
@@ -8201,14 +8201,14 @@
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="45"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="217"/>
-      <c r="R5" s="218"/>
+      <c r="K5" s="219"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="221"/>
       <c r="S5" s="46"/>
       <c r="T5" s="46"/>
     </row>
@@ -8217,14 +8217,14 @@
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="45"/>
-      <c r="K6" s="219"/>
-      <c r="L6" s="220"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="220"/>
-      <c r="R6" s="221"/>
+      <c r="K6" s="222"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="224"/>
       <c r="S6" s="46"/>
       <c r="T6" s="46"/>
     </row>
@@ -8962,14 +8962,14 @@
       <c r="I4" s="41"/>
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="177"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="180"/>
       <c r="T4" s="43"/>
       <c r="U4" s="43"/>
     </row>
@@ -8979,14 +8979,14 @@
       <c r="I5" s="42"/>
       <c r="J5" s="40"/>
       <c r="K5" s="41"/>
-      <c r="L5" s="178"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="180"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="182"/>
+      <c r="S5" s="183"/>
       <c r="T5" s="43"/>
       <c r="U5" s="43"/>
     </row>
@@ -8996,14 +8996,14 @@
       <c r="I6" s="42"/>
       <c r="J6" s="40"/>
       <c r="K6" s="41"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="183"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="186"/>
       <c r="T6" s="43"/>
       <c r="U6" s="43"/>
     </row>
@@ -9044,15 +9044,15 @@
       <c r="U8" s="73"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="H9" s="222" t="s">
+      <c r="H9" s="225" t="s">
         <v>215</v>
       </c>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="224"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="227"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="116">
@@ -9076,15 +9076,15 @@
       <c r="G10" s="116">
         <v>6</v>
       </c>
-      <c r="H10" s="225" t="s">
+      <c r="H10" s="228" t="s">
         <v>216</v>
       </c>
-      <c r="I10" s="226"/>
-      <c r="J10" s="226"/>
-      <c r="K10" s="226"/>
-      <c r="L10" s="226"/>
-      <c r="M10" s="226"/>
-      <c r="N10" s="227"/>
+      <c r="I10" s="229"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="229"/>
+      <c r="M10" s="229"/>
+      <c r="N10" s="230"/>
     </row>
     <row r="11" spans="1:21" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="117" t="s">
@@ -9359,16 +9359,16 @@
       <c r="H4" s="40"/>
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
-      <c r="K4" s="175" t="s">
+      <c r="K4" s="178" t="s">
         <v>232</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="177"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="180"/>
       <c r="S4" s="43"/>
       <c r="T4" s="43"/>
     </row>
@@ -9377,14 +9377,14 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="41"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="180"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="182"/>
+      <c r="M5" s="182"/>
+      <c r="N5" s="182"/>
+      <c r="O5" s="182"/>
+      <c r="P5" s="182"/>
+      <c r="Q5" s="182"/>
+      <c r="R5" s="183"/>
       <c r="S5" s="43"/>
       <c r="T5" s="43"/>
     </row>
@@ -9393,14 +9393,14 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="183"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="186"/>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
     </row>
@@ -9588,12 +9588,12 @@
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="71"/>
-      <c r="H13" s="228" t="s">
+      <c r="H13" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="I13" s="228"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="229"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="231"/>
+      <c r="K13" s="232"/>
       <c r="L13" s="81"/>
       <c r="M13" s="81"/>
       <c r="N13" s="81"/>
@@ -9670,16 +9670,16 @@
     </row>
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="71"/>
-      <c r="H17" s="230" t="s">
+      <c r="H17" s="233" t="s">
         <v>242</v>
       </c>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="230"/>
-      <c r="L17" s="230"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="230"/>
-      <c r="O17" s="231"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="233"/>
+      <c r="L17" s="233"/>
+      <c r="M17" s="233"/>
+      <c r="N17" s="233"/>
+      <c r="O17" s="234"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
@@ -9766,14 +9766,14 @@
     </row>
     <row r="21" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="71"/>
-      <c r="H21" s="228" t="s">
+      <c r="H21" s="231" t="s">
         <v>248</v>
       </c>
-      <c r="I21" s="228"/>
-      <c r="J21" s="228"/>
-      <c r="K21" s="228"/>
-      <c r="L21" s="228"/>
-      <c r="M21" s="229"/>
+      <c r="I21" s="231"/>
+      <c r="J21" s="231"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="231"/>
+      <c r="M21" s="232"/>
       <c r="N21" s="70"/>
       <c r="O21" s="70"/>
       <c r="P21" s="70"/>
@@ -9856,11 +9856,11 @@
     </row>
     <row r="25" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="71"/>
-      <c r="H25" s="228" t="s">
+      <c r="H25" s="231" t="s">
         <v>251</v>
       </c>
-      <c r="I25" s="228"/>
-      <c r="J25" s="229"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="232"/>
       <c r="K25" s="70"/>
       <c r="L25" s="70"/>
       <c r="M25" s="70"/>
@@ -9956,18 +9956,18 @@
     </row>
     <row r="30" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="71"/>
-      <c r="H30" s="228" t="s">
+      <c r="H30" s="231" t="s">
         <v>256</v>
       </c>
-      <c r="I30" s="228"/>
-      <c r="J30" s="228"/>
-      <c r="K30" s="229"/>
+      <c r="I30" s="231"/>
+      <c r="J30" s="231"/>
+      <c r="K30" s="232"/>
       <c r="L30" s="70"/>
-      <c r="M30" s="228" t="s">
+      <c r="M30" s="231" t="s">
         <v>257</v>
       </c>
-      <c r="N30" s="228"/>
-      <c r="O30" s="229"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="232"/>
       <c r="P30" s="70"/>
       <c r="Q30" s="70"/>
       <c r="R30" s="70"/>
@@ -10320,14 +10320,14 @@
       <c r="H5" s="40"/>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="177"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
       <c r="S5" s="43"/>
       <c r="T5" s="43"/>
     </row>
@@ -10336,14 +10336,14 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="180"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="183"/>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
     </row>
@@ -10352,14 +10352,14 @@
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="183"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="186"/>
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
     </row>
@@ -10888,7 +10888,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10941,12 +10941,12 @@
       <c r="S2" s="43"/>
       <c r="T2" s="43"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -10982,14 +10982,14 @@
       <c r="H5" s="40"/>
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="177"/>
+      <c r="K5" s="178"/>
+      <c r="L5" s="179"/>
+      <c r="M5" s="179"/>
+      <c r="N5" s="179"/>
+      <c r="O5" s="179"/>
+      <c r="P5" s="179"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="180"/>
       <c r="S5" s="43"/>
       <c r="T5" s="43"/>
     </row>
@@ -10998,14 +10998,14 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="41"/>
-      <c r="K6" s="178"/>
-      <c r="L6" s="179"/>
-      <c r="M6" s="179"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="179"/>
-      <c r="P6" s="179"/>
-      <c r="Q6" s="179"/>
-      <c r="R6" s="180"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="183"/>
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
     </row>
@@ -11014,14 +11014,14 @@
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="41"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="183"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="186"/>
       <c r="S7" s="43"/>
       <c r="T7" s="43"/>
     </row>
@@ -11121,13 +11121,13 @@
         <v>141</v>
       </c>
       <c r="I11" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="J11" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="J11" s="55" t="s">
+      <c r="K11" s="55" t="s">
         <v>284</v>
-      </c>
-      <c r="K11" s="55" t="s">
-        <v>285</v>
       </c>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
@@ -11158,13 +11158,13 @@
         <v>177</v>
       </c>
       <c r="H12" s="172" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I12" s="172" t="s">
         <v>80</v>
       </c>
       <c r="J12" s="172" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K12" s="172"/>
       <c r="L12" s="70"/>
@@ -11180,13 +11180,13 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G13" s="71"/>
       <c r="H13" s="173" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I13" s="173" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K13" s="173"/>
       <c r="L13" s="70"/>
@@ -11202,13 +11202,13 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G14" s="71"/>
       <c r="H14" s="173" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I14" s="173" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="173" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K14" s="174"/>
       <c r="L14" s="70"/>

--- a/Set2.xlsx
+++ b/Set2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="831" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="831" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Create Implementation Project" sheetId="1" r:id="rId1"/>
@@ -704,33 +704,21 @@
     <t>Cross Rate Pivot Currency</t>
   </si>
   <si>
-    <t>AVERAGE</t>
-  </si>
-  <si>
     <t>AVERAGE Rate Test</t>
   </si>
   <si>
     <t>&lt;blank&gt;</t>
   </si>
   <si>
-    <t>SPOT TEST</t>
-  </si>
-  <si>
     <t>SPOT Market Rate</t>
   </si>
   <si>
-    <t>FLOATING</t>
-  </si>
-  <si>
     <t>FLOATING Rate</t>
   </si>
   <si>
     <t>Establish Enterprise Structures</t>
   </si>
   <si>
-    <t>Setup and Maintenance-&gt;Workforce Deployment-&gt;Define Common Applications Configurations for HCM-&gt; Define Enterprise Structures for Human Capital Management-&gt; Define Initial Configuration -&gt; Establish Enterprise Structure</t>
-  </si>
-  <si>
     <t>This sheet should be populated while setting up enterprise structures using enterprise structure configurator (ESC)</t>
   </si>
   <si>
@@ -776,9 +764,6 @@
     <t>Ultimate Holding Company</t>
   </si>
   <si>
-    <t>Legal Adress</t>
-  </si>
-  <si>
     <t>Business Unit</t>
   </si>
   <si>
@@ -833,51 +818,6 @@
     <t>Set Name</t>
   </si>
   <si>
-    <t>DEVOPS1SET0051</t>
-  </si>
-  <si>
-    <t>DEVOPS1ACN2_LegalEntity_Enterprise SET</t>
-  </si>
-  <si>
-    <t>DEVOPSSET0053</t>
-  </si>
-  <si>
-    <t>DEVOPSACN4_LegalEntity_Enterprise SET</t>
-  </si>
-  <si>
-    <t>DEVOPS5SET0052</t>
-  </si>
-  <si>
-    <t>DEVOPS5ACN3_LegalEntity_Enterprise SET</t>
-  </si>
-  <si>
-    <t>devops ACN1 Enterprise</t>
-  </si>
-  <si>
-    <t>devops ACN1_Enterprise</t>
-  </si>
-  <si>
-    <t>devops ACN1_ENT</t>
-  </si>
-  <si>
-    <t>devops ACN1_Enterprise Division</t>
-  </si>
-  <si>
-    <t>devops ACN1_Enterprise Division Description</t>
-  </si>
-  <si>
-    <t>devops ACN1_LegalEntity_Enterprise</t>
-  </si>
-  <si>
-    <t>devops ACN1_LEG_ENT</t>
-  </si>
-  <si>
-    <t>devops ACN1_LegalEntity_Enterprise BU</t>
-  </si>
-  <si>
-    <t>devops ACN1_LegalEntity_Enterprise SET</t>
-  </si>
-  <si>
     <t>Manage Legislative Data Groups</t>
   </si>
   <si>
@@ -893,15 +833,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>ACN US LDG4</t>
-  </si>
-  <si>
-    <t>ACN US LDG5</t>
-  </si>
-  <si>
-    <t>devops ACN US LDG3</t>
-  </si>
-  <si>
     <t>US Central Time</t>
   </si>
   <si>
@@ -923,15 +854,6 @@
     <t>177 N. State St.</t>
   </si>
   <si>
-    <t>Suite Test</t>
-  </si>
-  <si>
-    <t>155 N. Test St.</t>
-  </si>
-  <si>
-    <t>177 N. Test St.</t>
-  </si>
-  <si>
     <t>Time Zone</t>
   </si>
   <si>
@@ -963,6 +885,84 @@
   </si>
   <si>
     <t>Setup and Maintenance-&gt; Workforce Deployment-&gt; Define Common Applications Configuration for HCM-&gt; Define Enterprise Structures for Human Capital Management-&gt; Manage Legislative Data Groups</t>
+  </si>
+  <si>
+    <t>Setup and Maintenance-&gt;Workforce Deployment-&gt;Define Common Applications Configuration for HCM-&gt; Define Enterprise Structures for Human Capital Management-&gt; Define Initial Configuration-&gt; Establish Enterprise Structures</t>
+  </si>
+  <si>
+    <t>Legal Address</t>
+  </si>
+  <si>
+    <t>DevOps_AVERAGE</t>
+  </si>
+  <si>
+    <t>DevOps_SPOT TEST</t>
+  </si>
+  <si>
+    <t>DevOps_FLOATING</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1 Enterprise</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_Enterprise</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_ENT</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_Enterprise Division</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_Enterprise Division Description</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_LegalEntity_Enterprise</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_LEG_ENT</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_LegalEntity_Enterprise BU</t>
+  </si>
+  <si>
+    <t>devops_demo ACN1_LegalEntity_Enterprise SET</t>
+  </si>
+  <si>
+    <t>DEVOPS1DEMOSET0052</t>
+  </si>
+  <si>
+    <t>DEVOPS5DEMOSET0052</t>
+  </si>
+  <si>
+    <t>DEVOPSDEMOSET0053</t>
+  </si>
+  <si>
+    <t>DEVOPS1DEMOACN2_LegalEntity_Enterprise SET</t>
+  </si>
+  <si>
+    <t>DEVOPS5DEMOACN3_LegalEntity_Enterprise SET</t>
+  </si>
+  <si>
+    <t>DEVOPSDEMOACN4_LegalEntity_Enterprise SET</t>
+  </si>
+  <si>
+    <t>devops_demo ACN US LDG3</t>
+  </si>
+  <si>
+    <t>ACN_demo US LDG4</t>
+  </si>
+  <si>
+    <t>ACN_demo US LDG5</t>
+  </si>
+  <si>
+    <t>177 N. Demo St.</t>
+  </si>
+  <si>
+    <t>155 N. Demo St.</t>
+  </si>
+  <si>
+    <t>Suite Demo</t>
   </si>
 </sst>
 </file>
@@ -2194,6 +2194,42 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2205,42 +2241,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
@@ -3584,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="177" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="177" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -3667,7 +3667,7 @@
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
       <c r="K4" s="178" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="L4" s="179"/>
       <c r="M4" s="179"/>
@@ -3753,7 +3753,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="235" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="I9" s="236"/>
       <c r="J9" s="236"/>
@@ -3791,28 +3791,28 @@
         <v>172</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="J10" s="55" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="L10" s="55" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="M10" s="55" t="s">
         <v>183</v>
       </c>
       <c r="N10" s="55" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="O10" s="55" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="P10" s="73"/>
       <c r="Q10" s="73"/>
@@ -3842,23 +3842,23 @@
         <v>80</v>
       </c>
       <c r="I11" s="147" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="J11" s="147" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="K11" s="147"/>
       <c r="L11" s="175" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M11" s="175" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="N11" s="175">
         <v>60601</v>
       </c>
       <c r="O11" s="175" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="P11" s="176"/>
       <c r="Q11" s="176"/>
@@ -3872,23 +3872,23 @@
         <v>80</v>
       </c>
       <c r="I12" s="147" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="J12" s="147" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="K12" s="147"/>
       <c r="L12" s="175" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M12" s="175" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="N12" s="175">
         <v>60601</v>
       </c>
       <c r="O12" s="175" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -3952,23 +3952,23 @@
         <v>80</v>
       </c>
       <c r="I18" s="147" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="J18" s="147" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="K18" s="147"/>
       <c r="L18" s="175" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M18" s="175" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="N18" s="175">
         <v>60601</v>
       </c>
       <c r="O18" s="175" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="7:15" x14ac:dyDescent="0.25">
@@ -3977,23 +3977,23 @@
         <v>80</v>
       </c>
       <c r="I19" s="174" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="J19" s="147" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="K19" s="174"/>
       <c r="L19" s="175" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="M19" s="175" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="N19" s="175">
         <v>60601</v>
       </c>
       <c r="O19" s="175" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="7:15" x14ac:dyDescent="0.25">
@@ -6194,104 +6194,104 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="G8" s="73"/>
-      <c r="H8" s="211" t="s">
+      <c r="H8" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="211"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="211"/>
-      <c r="R8" s="211"/>
-      <c r="S8" s="211"/>
-      <c r="T8" s="211"/>
-      <c r="U8" s="211"/>
-      <c r="V8" s="211"/>
-      <c r="W8" s="211"/>
-      <c r="X8" s="211"/>
-      <c r="Y8" s="211"/>
-      <c r="Z8" s="211"/>
-      <c r="AA8" s="211"/>
-      <c r="AB8" s="211"/>
-      <c r="AC8" s="211"/>
-      <c r="AD8" s="211"/>
-      <c r="AE8" s="211"/>
-      <c r="AF8" s="211"/>
-      <c r="AG8" s="211"/>
-      <c r="AH8" s="211"/>
-      <c r="AI8" s="211"/>
-      <c r="AJ8" s="211"/>
-      <c r="AK8" s="211"/>
-      <c r="AL8" s="211"/>
-      <c r="AM8" s="211"/>
-      <c r="AN8" s="211"/>
-      <c r="AO8" s="211"/>
-      <c r="AP8" s="211"/>
-      <c r="AQ8" s="211"/>
-      <c r="AR8" s="211"/>
-      <c r="AS8" s="211"/>
-      <c r="AT8" s="211"/>
-      <c r="AU8" s="211"/>
-      <c r="AV8" s="211"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
+      <c r="L8" s="201"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="201"/>
+      <c r="Q8" s="201"/>
+      <c r="R8" s="201"/>
+      <c r="S8" s="201"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="201"/>
+      <c r="W8" s="201"/>
+      <c r="X8" s="201"/>
+      <c r="Y8" s="201"/>
+      <c r="Z8" s="201"/>
+      <c r="AA8" s="201"/>
+      <c r="AB8" s="201"/>
+      <c r="AC8" s="201"/>
+      <c r="AD8" s="201"/>
+      <c r="AE8" s="201"/>
+      <c r="AF8" s="201"/>
+      <c r="AG8" s="201"/>
+      <c r="AH8" s="201"/>
+      <c r="AI8" s="201"/>
+      <c r="AJ8" s="201"/>
+      <c r="AK8" s="201"/>
+      <c r="AL8" s="201"/>
+      <c r="AM8" s="201"/>
+      <c r="AN8" s="201"/>
+      <c r="AO8" s="201"/>
+      <c r="AP8" s="201"/>
+      <c r="AQ8" s="201"/>
+      <c r="AR8" s="201"/>
+      <c r="AS8" s="201"/>
+      <c r="AT8" s="201"/>
+      <c r="AU8" s="201"/>
+      <c r="AV8" s="201"/>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="G9" s="78"/>
-      <c r="H9" s="212" t="s">
+      <c r="H9" s="202" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="213"/>
-      <c r="J9" s="213"/>
-      <c r="K9" s="214" t="s">
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="204" t="s">
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="P9" s="205"/>
-      <c r="Q9" s="205"/>
-      <c r="R9" s="205"/>
-      <c r="S9" s="206"/>
+      <c r="P9" s="210"/>
+      <c r="Q9" s="210"/>
+      <c r="R9" s="210"/>
+      <c r="S9" s="211"/>
       <c r="T9" s="95" t="s">
         <v>95</v>
       </c>
       <c r="U9" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="207" t="s">
+      <c r="V9" s="206" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="208"/>
-      <c r="AB9" s="208"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="208"/>
-      <c r="AE9" s="208"/>
-      <c r="AF9" s="208"/>
-      <c r="AG9" s="209"/>
-      <c r="AH9" s="204" t="s">
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="207"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="208"/>
+      <c r="AH9" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="AI9" s="205"/>
-      <c r="AJ9" s="205"/>
-      <c r="AK9" s="205"/>
-      <c r="AL9" s="205"/>
-      <c r="AM9" s="205"/>
-      <c r="AN9" s="205"/>
-      <c r="AO9" s="205"/>
-      <c r="AP9" s="205"/>
-      <c r="AQ9" s="205"/>
-      <c r="AR9" s="205"/>
-      <c r="AS9" s="206"/>
+      <c r="AI9" s="210"/>
+      <c r="AJ9" s="210"/>
+      <c r="AK9" s="210"/>
+      <c r="AL9" s="210"/>
+      <c r="AM9" s="210"/>
+      <c r="AN9" s="210"/>
+      <c r="AO9" s="210"/>
+      <c r="AP9" s="210"/>
+      <c r="AQ9" s="210"/>
+      <c r="AR9" s="210"/>
+      <c r="AS9" s="211"/>
       <c r="AT9" s="92" t="s">
         <v>99</v>
       </c>
@@ -7044,36 +7044,36 @@
     </row>
     <row r="18" spans="7:48" x14ac:dyDescent="0.25">
       <c r="G18" s="73"/>
-      <c r="H18" s="210" t="s">
+      <c r="H18" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="I18" s="210"/>
-      <c r="J18" s="210"/>
-      <c r="K18" s="210"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="211"/>
-      <c r="S18" s="211"/>
-      <c r="T18" s="211"/>
-      <c r="U18" s="211"/>
-      <c r="V18" s="211"/>
-      <c r="W18" s="211"/>
-      <c r="X18" s="211"/>
-      <c r="Y18" s="211"/>
-      <c r="Z18" s="211"/>
-      <c r="AA18" s="211"/>
-      <c r="AB18" s="211"/>
-      <c r="AC18" s="211"/>
-      <c r="AD18" s="211"/>
-      <c r="AE18" s="211"/>
-      <c r="AF18" s="211"/>
-      <c r="AG18" s="211"/>
-      <c r="AH18" s="211"/>
-      <c r="AI18" s="211"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="201"/>
+      <c r="X18" s="201"/>
+      <c r="Y18" s="201"/>
+      <c r="Z18" s="201"/>
+      <c r="AA18" s="201"/>
+      <c r="AB18" s="201"/>
+      <c r="AC18" s="201"/>
+      <c r="AD18" s="201"/>
+      <c r="AE18" s="201"/>
+      <c r="AF18" s="201"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="201"/>
       <c r="AJ18" s="73"/>
       <c r="AK18" s="73"/>
       <c r="AL18" s="73"/>
@@ -7090,43 +7090,43 @@
     </row>
     <row r="19" spans="7:48" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="78"/>
-      <c r="H19" s="200" t="s">
+      <c r="H19" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="207" t="s">
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="212"/>
+      <c r="L19" s="213"/>
+      <c r="M19" s="206" t="s">
         <v>136</v>
       </c>
-      <c r="N19" s="208"/>
-      <c r="O19" s="208"/>
-      <c r="P19" s="208"/>
-      <c r="Q19" s="209"/>
-      <c r="R19" s="204" t="s">
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="208"/>
+      <c r="R19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="S19" s="205"/>
-      <c r="T19" s="205"/>
-      <c r="U19" s="206"/>
-      <c r="V19" s="204" t="s">
+      <c r="S19" s="210"/>
+      <c r="T19" s="210"/>
+      <c r="U19" s="211"/>
+      <c r="V19" s="209" t="s">
         <v>138</v>
       </c>
-      <c r="W19" s="205"/>
-      <c r="X19" s="205"/>
-      <c r="Y19" s="205"/>
-      <c r="Z19" s="205"/>
-      <c r="AA19" s="206"/>
-      <c r="AB19" s="204" t="s">
+      <c r="W19" s="210"/>
+      <c r="X19" s="210"/>
+      <c r="Y19" s="210"/>
+      <c r="Z19" s="210"/>
+      <c r="AA19" s="211"/>
+      <c r="AB19" s="209" t="s">
         <v>139</v>
       </c>
-      <c r="AC19" s="205"/>
-      <c r="AD19" s="206"/>
-      <c r="AE19" s="202" t="s">
+      <c r="AC19" s="210"/>
+      <c r="AD19" s="211"/>
+      <c r="AE19" s="214" t="s">
         <v>140</v>
       </c>
-      <c r="AF19" s="203"/>
+      <c r="AF19" s="215"/>
       <c r="AG19" s="78"/>
       <c r="AH19" s="78"/>
       <c r="AI19" s="78"/>
@@ -7546,6 +7546,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:AA19"/>
     <mergeCell ref="H18:AI18"/>
     <mergeCell ref="M4:T6"/>
     <mergeCell ref="H8:AV8"/>
@@ -7554,12 +7560,6 @@
     <mergeCell ref="V9:AG9"/>
     <mergeCell ref="AH9:AS9"/>
     <mergeCell ref="O9:S9"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:AA19"/>
   </mergeCells>
   <conditionalFormatting sqref="H7:R7">
     <cfRule type="cellIs" dxfId="41" priority="7" stopIfTrue="1" operator="equal">
@@ -8876,7 +8876,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9149,13 +9149,13 @@
         <v>177</v>
       </c>
       <c r="H12" s="127" t="s">
+        <v>286</v>
+      </c>
+      <c r="I12" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="I12" s="127" t="s">
+      <c r="J12" s="127" t="s">
         <v>224</v>
-      </c>
-      <c r="J12" s="127" t="s">
-        <v>225</v>
       </c>
       <c r="K12" s="127" t="s">
         <v>12</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H13" s="128" t="s">
-        <v>226</v>
+        <v>287</v>
       </c>
       <c r="I13" s="127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J13" s="127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K13" s="127" t="s">
         <v>12</v>
@@ -9192,13 +9192,13 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H14" s="128" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="I14" s="128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J14" s="127" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K14" s="127" t="s">
         <v>12</v>
@@ -9275,8 +9275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView topLeftCell="H14" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9290,8 +9290,8 @@
     <col min="8" max="8" width="25.85546875" style="35" customWidth="1"/>
     <col min="9" max="9" width="29.140625" style="35" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="35" customWidth="1"/>
+    <col min="11" max="11" width="27" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" style="35" customWidth="1"/>
     <col min="14" max="14" width="14.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" style="35" bestFit="1" customWidth="1"/>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
@@ -9339,7 +9339,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -9360,7 +9360,7 @@
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
       <c r="K4" s="178" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L4" s="179"/>
       <c r="M4" s="179"/>
@@ -9504,19 +9504,19 @@
       </c>
       <c r="J10" s="133"/>
       <c r="K10" s="133" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="134" t="s">
+        <v>230</v>
+      </c>
+      <c r="M10" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="N10" s="134" t="s">
+        <v>232</v>
+      </c>
+      <c r="O10" s="134" t="s">
         <v>233</v>
-      </c>
-      <c r="L10" s="134" t="s">
-        <v>234</v>
-      </c>
-      <c r="M10" s="134" t="s">
-        <v>235</v>
-      </c>
-      <c r="N10" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="134" t="s">
-        <v>237</v>
       </c>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -9543,26 +9543,26 @@
         <v>177</v>
       </c>
       <c r="H11" s="135" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="I11" s="135" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="J11" s="136"/>
       <c r="K11" s="135" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L11" s="135" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M11" s="137" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="N11" s="137" t="s">
         <v>80</v>
       </c>
       <c r="O11" s="137" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P11" s="138"/>
       <c r="Q11" s="138"/>
@@ -9589,7 +9589,7 @@
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="71"/>
       <c r="H13" s="231" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I13" s="231"/>
       <c r="J13" s="231"/>
@@ -9616,7 +9616,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="145" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L14" s="81"/>
       <c r="M14" s="81"/>
@@ -9631,16 +9631,16 @@
     <row r="15" spans="1:20" s="140" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G15" s="146"/>
       <c r="H15" s="136" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="I15" s="136" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="J15" s="147" t="s">
         <v>80</v>
       </c>
       <c r="K15" s="137" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L15" s="148"/>
       <c r="M15" s="148"/>
@@ -9671,7 +9671,7 @@
     <row r="17" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G17" s="71"/>
       <c r="H17" s="233" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I17" s="233"/>
       <c r="J17" s="233"/>
@@ -9695,22 +9695,22 @@
         <v>217</v>
       </c>
       <c r="J18" s="133" t="s">
+        <v>236</v>
+      </c>
+      <c r="K18" s="133" t="s">
+        <v>239</v>
+      </c>
+      <c r="L18" s="134" t="s">
         <v>240</v>
       </c>
-      <c r="K18" s="133" t="s">
-        <v>243</v>
-      </c>
-      <c r="L18" s="134" t="s">
-        <v>244</v>
-      </c>
       <c r="M18" s="134" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N18" s="134" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O18" s="134" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="P18" s="70"/>
       <c r="Q18" s="70"/>
@@ -9718,17 +9718,17 @@
       <c r="S18" s="70"/>
       <c r="T18" s="70"/>
     </row>
-    <row r="19" spans="7:20" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:20" s="140" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="G19" s="146"/>
       <c r="H19" s="136" t="s">
         <v>80</v>
       </c>
       <c r="I19" s="136" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="J19" s="136"/>
       <c r="K19" s="152" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L19" s="153">
         <v>1234567980</v>
@@ -9740,7 +9740,7 @@
         <v>12</v>
       </c>
       <c r="O19" s="137" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P19" s="154"/>
       <c r="Q19" s="154"/>
@@ -9767,7 +9767,7 @@
     <row r="21" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="71"/>
       <c r="H21" s="231" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I21" s="231"/>
       <c r="J21" s="231"/>
@@ -9785,10 +9785,10 @@
     <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22" s="71"/>
       <c r="H22" s="145" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I22" s="145" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J22" s="145" t="s">
         <v>217</v>
@@ -9800,7 +9800,7 @@
         <v>39</v>
       </c>
       <c r="M22" s="156" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N22" s="70"/>
       <c r="O22" s="70"/>
@@ -9810,16 +9810,16 @@
       <c r="S22" s="70"/>
       <c r="T22" s="70"/>
     </row>
-    <row r="23" spans="7:20" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:20" s="140" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="G23" s="146"/>
       <c r="H23" s="157" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="I23" s="157" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J23" s="157" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K23" s="158" t="s">
         <v>65</v>
@@ -9828,7 +9828,7 @@
         <v>80</v>
       </c>
       <c r="M23" s="159" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N23" s="154"/>
       <c r="O23" s="154"/>
@@ -9857,7 +9857,7 @@
     <row r="25" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G25" s="71"/>
       <c r="H25" s="231" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I25" s="231"/>
       <c r="J25" s="232"/>
@@ -9875,7 +9875,7 @@
     <row r="26" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G26" s="71"/>
       <c r="H26" s="145" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I26" s="145" t="s">
         <v>217</v>
@@ -9894,16 +9894,16 @@
       <c r="S26" s="70"/>
       <c r="T26" s="70"/>
     </row>
-    <row r="27" spans="7:20" s="140" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:20" s="140" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="G27" s="146"/>
       <c r="H27" s="136" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="I27" s="136" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="J27" s="147" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K27" s="154"/>
       <c r="L27" s="154"/>
@@ -9922,10 +9922,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="147" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J28" s="147" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K28" s="154"/>
       <c r="L28" s="154"/>
@@ -9957,14 +9957,14 @@
     <row r="30" spans="7:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G30" s="71"/>
       <c r="H30" s="231" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I30" s="231"/>
       <c r="J30" s="231"/>
       <c r="K30" s="232"/>
       <c r="L30" s="70"/>
       <c r="M30" s="231" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="N30" s="231"/>
       <c r="O30" s="232"/>
@@ -9977,7 +9977,7 @@
     <row r="31" spans="7:20" ht="24" x14ac:dyDescent="0.25">
       <c r="G31" s="71"/>
       <c r="H31" s="145" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I31" s="145" t="s">
         <v>217</v>
@@ -9986,7 +9986,7 @@
         <v>7</v>
       </c>
       <c r="K31" s="145" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L31" s="70"/>
       <c r="M31" s="145" t="s">
@@ -9996,7 +9996,7 @@
         <v>6</v>
       </c>
       <c r="O31" s="145" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P31" s="70"/>
       <c r="Q31" s="70"/>
@@ -10007,26 +10007,26 @@
     <row r="32" spans="7:20" s="140" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="G32" s="146"/>
       <c r="H32" s="136" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I32" s="136" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="J32" s="147" t="s">
         <v>65</v>
       </c>
       <c r="K32" s="160" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L32" s="161"/>
       <c r="M32" s="162" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N32" s="163" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="O32" s="163" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P32" s="154"/>
       <c r="Q32" s="154"/>
@@ -10225,7 +10225,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="168" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
@@ -10284,7 +10284,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -10420,7 +10420,7 @@
         <v>6</v>
       </c>
       <c r="H10" s="72" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
@@ -10458,10 +10458,10 @@
         <v>172</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J11" s="55" t="s">
         <v>6</v>
@@ -10496,13 +10496,13 @@
         <v>177</v>
       </c>
       <c r="H12" s="169" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="I12" s="170" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="J12" s="164" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70"/>
@@ -10518,13 +10518,13 @@
     <row r="13" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G13" s="71"/>
       <c r="H13" s="169" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="I13" s="170" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="J13" s="164" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
@@ -10540,13 +10540,13 @@
     <row r="14" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G14" s="71"/>
       <c r="H14" s="169" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="I14" s="170" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J14" s="164" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
@@ -10887,8 +10887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="I2" s="40"/>
       <c r="J2" s="41"/>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="I3" s="40"/>
       <c r="J3" s="41"/>
@@ -11121,13 +11121,13 @@
         <v>141</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="J11" s="55" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="L11" s="70"/>
       <c r="M11" s="70"/>
@@ -11158,13 +11158,13 @@
         <v>177</v>
       </c>
       <c r="H12" s="172" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="I12" s="172" t="s">
         <v>80</v>
       </c>
       <c r="J12" s="172" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K12" s="172"/>
       <c r="L12" s="70"/>
@@ -11180,13 +11180,13 @@
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G13" s="71"/>
       <c r="H13" s="173" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="I13" s="173" t="s">
         <v>80</v>
       </c>
       <c r="J13" s="173" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K13" s="173"/>
       <c r="L13" s="70"/>
@@ -11202,13 +11202,13 @@
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G14" s="71"/>
       <c r="H14" s="173" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="I14" s="173" t="s">
         <v>80</v>
       </c>
       <c r="J14" s="173" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="K14" s="174"/>
       <c r="L14" s="70"/>
